--- a/UGCOfWorkshopMonth.xlsx
+++ b/UGCOfWorkshopMonth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>Level</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Language</t>
   </si>
   <si>
-    <t>TUS (2024-04-09)</t>
+    <t>TUS (2024-04-22)</t>
   </si>
   <si>
     <t>Rating</t>
@@ -49,49 +49,103 @@
     <t>Model</t>
   </si>
   <si>
-    <t>春风秋水</t>
-  </si>
-  <si>
-    <t>馒头</t>
-  </si>
-  <si>
-    <t>08/04/2024</t>
+    <t>诀别书</t>
+  </si>
+  <si>
+    <t>可乐没有气了</t>
+  </si>
+  <si>
+    <t>19/03/2024</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BOB BALL3</t>
+  </si>
+  <si>
+    <t>脸红</t>
+  </si>
+  <si>
+    <t>21/03/2024</t>
   </si>
   <si>
     <t>CN</t>
   </si>
   <si>
-    <t>zh-cn</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>S P A C E</t>
-  </si>
-  <si>
-    <t>N O _ L I M I T S</t>
+    <t>禁止摆烂萌新图</t>
+  </si>
+  <si>
+    <t>肉女士</t>
+  </si>
+  <si>
+    <t>23/03/2024</t>
+  </si>
+  <si>
+    <t>PartyTest_Fyang</t>
+  </si>
+  <si>
+    <t>肥羊</t>
+  </si>
+  <si>
+    <t>27/03/2024</t>
+  </si>
+  <si>
+    <t>Dogday</t>
+  </si>
+  <si>
+    <t>Kimmel</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Adolf Hitler</t>
+  </si>
+  <si>
+    <t>ebrunedre</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>RED ROBIN!</t>
+  </si>
+  <si>
+    <t>ordinalst</t>
+  </si>
+  <si>
+    <t>07/03/2024</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>skeleton</t>
-  </si>
-  <si>
-    <t>Crazy..queen..0</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>kirby</t>
-  </si>
-  <si>
-    <t>zudder</t>
-  </si>
-  <si>
-    <t>da</t>
+    <t>КЛОУН</t>
+  </si>
+  <si>
+    <t>7700n</t>
+  </si>
+  <si>
+    <t>02/03/2024</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>ru</t>
   </si>
 </sst>
 </file>
@@ -423,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,10 +537,10 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -503,113 +557,229 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1518</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>1195</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>456</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="H25" t="s">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>117</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12">
+        <v>1053</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/UGCOfWorkshopMonth.xlsx
+++ b/UGCOfWorkshopMonth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="159">
   <si>
     <t>Level</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Language</t>
   </si>
   <si>
-    <t>TUS (2024-05-21)</t>
+    <t>TUS (2024-05-22)</t>
   </si>
   <si>
     <t>Rating</t>
@@ -49,6 +49,21 @@
     <t>Model</t>
   </si>
   <si>
+    <t>溺梦（连跳）</t>
+  </si>
+  <si>
+    <t>哏</t>
+  </si>
+  <si>
+    <t>19/05/2024</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
     <t>mechanical maze</t>
   </si>
   <si>
@@ -61,114 +76,204 @@
     <t>CN</t>
   </si>
   <si>
-    <t>zh-cn</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>墨墨29-春游</t>
+  </si>
+  <si>
+    <t>墨墨</t>
+  </si>
+  <si>
+    <t>18/05/2024</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Karmazinov</t>
+  </si>
+  <si>
+    <t>14/05/2024</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>时遗 (连跳)</t>
+  </si>
+  <si>
+    <t>CANDY WORLD</t>
+  </si>
+  <si>
+    <t>激辣浪味仙☆</t>
+  </si>
+  <si>
+    <t>09/05/2024</t>
+  </si>
+  <si>
+    <t>悬溺</t>
+  </si>
+  <si>
+    <t>ℯℓ.凉cc</t>
+  </si>
+  <si>
+    <t>11/05/2024</t>
+  </si>
+  <si>
+    <t>菜就多练4</t>
+  </si>
+  <si>
+    <t>35"</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>春风秋水</t>
+  </si>
+  <si>
+    <t>馒头</t>
+  </si>
+  <si>
+    <t>08/04/2024</t>
+  </si>
+  <si>
+    <t>熊乐园</t>
+  </si>
+  <si>
+    <t>王面包</t>
+  </si>
+  <si>
+    <t>29/04/2024</t>
+  </si>
+  <si>
+    <t>敢直视我吗 嘿嘿</t>
+  </si>
+  <si>
+    <t>甘九</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>最后的连跳</t>
+  </si>
+  <si>
+    <t>梦会碎</t>
+  </si>
+  <si>
+    <t>14/04/2024</t>
+  </si>
+  <si>
+    <t>Granny 3 ''HOTFIX 05/05/24''</t>
+  </si>
+  <si>
+    <t>RAFA120</t>
+  </si>
+  <si>
+    <t>05/05/2024</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Human Smash (competitive multiplayer)</t>
+  </si>
+  <si>
+    <t>脸红</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>心漾（连跳）</t>
+  </si>
+  <si>
+    <t>22/04/2024</t>
+  </si>
+  <si>
+    <t>南怀瑾摁着面包做图=测试中</t>
+  </si>
+  <si>
+    <t>20/04/2024</t>
+  </si>
+  <si>
+    <t>CRAZY SLAM DUNK</t>
+  </si>
+  <si>
+    <t>12/04/2024</t>
+  </si>
+  <si>
+    <t>禁止焦虑萌新图</t>
+  </si>
+  <si>
+    <t>肉女士</t>
+  </si>
+  <si>
+    <t>15/04/2024</t>
+  </si>
+  <si>
+    <t>小初晨也能过的萌新图</t>
+  </si>
+  <si>
+    <t>dufeng501</t>
+  </si>
+  <si>
+    <t>17/04/2024</t>
+  </si>
+  <si>
+    <t>四季有时</t>
+  </si>
+  <si>
+    <t>不吃肉肉-</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>S P A C E</t>
+  </si>
+  <si>
+    <t>N O _ L I M I T S</t>
+  </si>
+  <si>
+    <t>夏日炎炎，来一场酣畅淋漓的跑酷吧！</t>
+  </si>
+  <si>
+    <t>廾匸</t>
+  </si>
+  <si>
+    <t>03/04/2024</t>
+  </si>
+  <si>
+    <t>上弦月（连跳）</t>
+  </si>
+  <si>
+    <t>霜.</t>
+  </si>
+  <si>
+    <t>查理九世 第一章：黑贝街的亡灵</t>
+  </si>
+  <si>
+    <t>05/04/2024</t>
+  </si>
+  <si>
+    <t>下弦月（连跳）</t>
+  </si>
+  <si>
+    <t>云涧（连跳）</t>
+  </si>
+  <si>
+    <t>yanjing</t>
+  </si>
+  <si>
+    <t>爆爆</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>墨墨29-春游</t>
-  </si>
-  <si>
-    <t>墨墨</t>
-  </si>
-  <si>
-    <t>18/05/2024</t>
-  </si>
-  <si>
-    <t>Mountain</t>
-  </si>
-  <si>
-    <t>Karmazinov</t>
-  </si>
-  <si>
-    <t>14/05/2024</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>溺梦（连跳）</t>
-  </si>
-  <si>
-    <t>哏</t>
-  </si>
-  <si>
-    <t>19/05/2024</t>
-  </si>
-  <si>
-    <t>时遗 (连跳)</t>
-  </si>
-  <si>
-    <t>CANDY WORLD</t>
-  </si>
-  <si>
-    <t>激辣浪味仙☆</t>
-  </si>
-  <si>
-    <t>09/05/2024</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>悬溺</t>
-  </si>
-  <si>
-    <t>ℯℓ.凉cc</t>
-  </si>
-  <si>
-    <t>11/05/2024</t>
-  </si>
-  <si>
-    <t>菜就多练4</t>
-  </si>
-  <si>
-    <t>35"</t>
-  </si>
-  <si>
-    <t>10/05/2024</t>
-  </si>
-  <si>
-    <t>敢直视我吗 嘿嘿</t>
-  </si>
-  <si>
-    <t>甘九</t>
-  </si>
-  <si>
-    <t>03/05/2024</t>
-  </si>
-  <si>
-    <t>Granny 3 ''HOTFIX 05/05/24''</t>
-  </si>
-  <si>
-    <t>RAFA120</t>
-  </si>
-  <si>
-    <t>05/05/2024</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>yanjing</t>
-  </si>
-  <si>
-    <t>爆爆</t>
-  </si>
-  <si>
-    <t>17/05/2024</t>
-  </si>
-  <si>
     <t>Diaz</t>
   </si>
   <si>
@@ -184,6 +289,132 @@
     <t>id</t>
   </si>
   <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>KUANGBB</t>
+  </si>
+  <si>
+    <t>22/05/2024</t>
+  </si>
+  <si>
+    <t>Benfica Benassa</t>
+  </si>
+  <si>
+    <t>AquaAmem</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>белая смерть</t>
+  </si>
+  <si>
+    <t>i4igo</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>Benfica Trubin</t>
+  </si>
+  <si>
+    <t>ohohohoh mago</t>
+  </si>
+  <si>
+    <t>Degon</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>ぶたです</t>
+  </si>
+  <si>
+    <t>hariichikun</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>icetoast12</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>agent jobs</t>
+  </si>
+  <si>
+    <t>austintran730</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>Aniki</t>
+  </si>
+  <si>
+    <t>Kurisutian</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>AI Kinda yellow</t>
+  </si>
+  <si>
+    <t>AI Kinda Guy</t>
+  </si>
+  <si>
+    <t>AI Kinda Red</t>
+  </si>
+  <si>
+    <t>Der Hühnerkommissar</t>
+  </si>
+  <si>
+    <t>INSOLWENZ</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Горшок</t>
+  </si>
+  <si>
+    <t>mk</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>GuinKim</t>
+  </si>
+  <si>
+    <t>大谷サムライJapan</t>
+  </si>
+  <si>
+    <t>世界記録を取るうに</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>lgklx</t>
+  </si>
+  <si>
+    <t>豆白zZ</t>
+  </si>
+  <si>
+    <t>07/05/2024</t>
+  </si>
+  <si>
     <t>vera</t>
   </si>
   <si>
@@ -202,82 +433,64 @@
     <t>da</t>
   </si>
   <si>
-    <t>Benfica Benassa</t>
-  </si>
-  <si>
-    <t>AquaAmem</t>
-  </si>
-  <si>
-    <t>20/05/2024</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>белая смерть</t>
-  </si>
-  <si>
-    <t>i4igo</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>Benfica Trubin</t>
-  </si>
-  <si>
-    <t>ohohohoh mago</t>
-  </si>
-  <si>
-    <t>Degon</t>
-  </si>
-  <si>
-    <t>tl</t>
-  </si>
-  <si>
-    <t>ぶたです</t>
-  </si>
-  <si>
-    <t>hariichikun</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>icetoast12</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>agent jobs</t>
-  </si>
-  <si>
-    <t>austintran730</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Aniki</t>
-  </si>
-  <si>
-    <t>Kurisutian</t>
-  </si>
-  <si>
-    <t>VE</t>
-  </si>
-  <si>
-    <t>AI Kinda yellow</t>
-  </si>
-  <si>
-    <t>AI Kinda Guy</t>
-  </si>
-  <si>
-    <t>AI Kinda Red</t>
+    <t>Dogbert</t>
+  </si>
+  <si>
+    <t>Perrin_White</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Xenophanes FNF</t>
+  </si>
+  <si>
+    <t>xᴇɴᴏᴘʜᴀɴᴇs</t>
+  </si>
+  <si>
+    <t>114514</t>
+  </si>
+  <si>
+    <t>超级土豆战神</t>
+  </si>
+  <si>
+    <t>10/04/2024</t>
+  </si>
+  <si>
+    <t>Kermit the Frog</t>
+  </si>
+  <si>
+    <t>Sir Lancelot</t>
+  </si>
+  <si>
+    <t>冰红茶科比 （Kobi Byd）</t>
+  </si>
+  <si>
+    <t>李洋帆</t>
+  </si>
+  <si>
+    <t>Sakura Wind Breaker</t>
+  </si>
+  <si>
+    <t>Izuku Midoriya</t>
+  </si>
+  <si>
+    <t>01/05/2024</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>06/05/2024</t>
+  </si>
+  <si>
+    <t>Ukr penguin</t>
+  </si>
+  <si>
+    <t>Firmtig</t>
+  </si>
+  <si>
+    <t>UA</t>
   </si>
 </sst>
 </file>
@@ -609,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>551</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -683,28 +896,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4">
-        <v>183</v>
+        <v>792</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -712,28 +925,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -741,28 +954,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
       <c r="G6">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -770,28 +983,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -799,28 +1012,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>2473</v>
+        <v>2619</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -828,28 +1041,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -857,28 +1070,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -886,28 +1099,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11">
-        <v>564</v>
+        <v>187</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -915,212 +1128,236 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>765</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>578</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12">
-        <v>1040</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>245</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G15">
-        <v>156</v>
+        <v>1077</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>61</v>
+        <v>3706</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>31</v>
+        <v>530</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>29</v>
+        <v>1629</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>5779</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -1132,82 +1369,82 @@
         <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>1205</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>1155</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
       <c r="G22">
-        <v>13</v>
+        <v>2030</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -1216,193 +1453,1068 @@
         <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2827</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>965</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>395</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>2398</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>359</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>486</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>191</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
         <v>85</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
         <v>13</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>16</v>
       </c>
-      <c r="F28" t="s">
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50">
+        <v>29</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
         <v>24</v>
       </c>
-      <c r="G28">
-        <v>8</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>1213</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29">
-        <v>9</v>
-      </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>25</v>
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55">
+        <v>1775</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>7566</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57">
+        <v>155</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58">
+        <v>117</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59">
+        <v>108</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60">
+        <v>714</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/UGCOfWorkshopMonth.xlsx
+++ b/UGCOfWorkshopMonth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="93">
   <si>
     <t>Level</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Language</t>
   </si>
   <si>
-    <t>TUS (2024-05-24)</t>
+    <t>TUS (2024-05-27)</t>
   </si>
   <si>
     <t>Rating</t>
@@ -49,6 +49,24 @@
     <t>Model</t>
   </si>
   <si>
+    <t>Increase The Volume</t>
+  </si>
+  <si>
+    <t>脸红</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>墨墨29-春游</t>
   </si>
   <si>
@@ -58,10 +76,7 @@
     <t>18/05/2024</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>zh-cn</t>
+    <t>ko</t>
   </si>
   <si>
     <t>mechanical maze</t>
@@ -73,7 +88,22 @@
     <t>16/05/2024</t>
   </si>
   <si>
-    <t>CN</t>
+    <t>溺梦（连跳）</t>
+  </si>
+  <si>
+    <t>哏</t>
+  </si>
+  <si>
+    <t>19/05/2024</t>
+  </si>
+  <si>
+    <t>养只咩咩</t>
+  </si>
+  <si>
+    <t>35"</t>
+  </si>
+  <si>
+    <t>26/05/2024</t>
   </si>
   <si>
     <t>Mountain</t>
@@ -91,33 +121,147 @@
     <t>时遗 (连跳)</t>
   </si>
   <si>
-    <t>哏</t>
-  </si>
-  <si>
-    <t>溺梦（连跳）</t>
-  </si>
-  <si>
-    <t>19/05/2024</t>
-  </si>
-  <si>
-    <t>yanjing</t>
-  </si>
-  <si>
-    <t>爆爆</t>
-  </si>
-  <si>
-    <t>17/05/2024</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Diaz</t>
+    <t>CANDY WORLD</t>
+  </si>
+  <si>
+    <t>激辣浪味仙☆</t>
+  </si>
+  <si>
+    <t>09/05/2024</t>
+  </si>
+  <si>
+    <t>悬溺</t>
+  </si>
+  <si>
+    <t>ℯℓ.凉cc</t>
+  </si>
+  <si>
+    <t>11/05/2024</t>
+  </si>
+  <si>
+    <t>菜就多练4</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>Granny 3 V2 MAJOR UPDATE</t>
+  </si>
+  <si>
+    <t>RAFA120</t>
+  </si>
+  <si>
+    <t>05/05/2024</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>敢直视我吗 嘿嘿</t>
+  </si>
+  <si>
+    <t>甘九</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>j0hNtWiN</t>
   </si>
   <si>
     <t>pl</t>
   </si>
   <si>
+    <t>Бабиджон</t>
+  </si>
+  <si>
+    <t>PonosUzbeka228</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>DOVE</t>
+  </si>
+  <si>
+    <t>香脆小条</t>
+  </si>
+  <si>
+    <t>25/05/2024</t>
+  </si>
+  <si>
+    <t>AMONG ussss 2</t>
+  </si>
+  <si>
+    <t>3keysteve</t>
+  </si>
+  <si>
+    <t>22/05/2024</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Faust</t>
+  </si>
+  <si>
+    <t>还是处</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>Maga</t>
+  </si>
+  <si>
+    <t>Mythi</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>sigma dany</t>
+  </si>
+  <si>
+    <t>dany</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>AlexLebeau</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>Meneer Özbel</t>
+  </si>
+  <si>
+    <t>Alezei</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>pumknight</t>
+  </si>
+  <si>
+    <t>PappieMcaffe</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
     <t>Chucken</t>
   </si>
   <si>
@@ -130,20 +274,32 @@
     <t>PL</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
     <t>RockyDoggy</t>
   </si>
   <si>
     <t>Maxplaier</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>s1mple</t>
+  </si>
+  <si>
+    <t>Agent 69</t>
+  </si>
+  <si>
+    <t>RedBear</t>
+  </si>
+  <si>
+    <t>tr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +307,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,8 +355,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,7 +700,7 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
@@ -528,13 +713,13 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -542,28 +727,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>1020</v>
+        <v>813</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -571,28 +756,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>312</v>
+        <v>1775</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -602,26 +787,26 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -629,207 +814,697 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>417</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>1</v>
+      <c r="A9">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>221</v>
+        <v>3365</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>1249</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>655</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
         <v>33</v>
       </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G26">
         <v>14</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29">
         <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
